--- a/units.xlsx
+++ b/units.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Yasin\vscode__\py_xlrd\auto_unit_setter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F51EC2-7669-48CA-959A-4D2A5EA40176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E470BB5C-517A-4153-93B3-E0AFAE6439B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="57">
   <si>
     <t>name</t>
   </si>
@@ -175,6 +175,27 @@
   </si>
   <si>
     <t>wen</t>
+  </si>
+  <si>
+    <t>exam date</t>
+  </si>
+  <si>
+    <t>1402/10/28 13:30-16:30</t>
+  </si>
+  <si>
+    <t>1402/11/02 08:30-11:30</t>
+  </si>
+  <si>
+    <t>1402/10/21 08:30-11:30</t>
+  </si>
+  <si>
+    <t>1402/10/24 08:30-11:30</t>
+  </si>
+  <si>
+    <t>1402/10/17 08:30-11:30</t>
+  </si>
+  <si>
+    <t>1402/10/18 08:30-10:30</t>
   </si>
 </sst>
 </file>
@@ -493,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,9 +526,10 @@
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -526,8 +548,11 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -546,8 +571,11 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -566,8 +594,11 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -586,8 +617,11 @@
       <c r="F4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -606,8 +640,11 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -627,7 +664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -647,7 +684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -667,7 +704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -687,7 +724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -707,7 +744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -727,7 +764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -747,7 +784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -767,7 +804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -787,7 +824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -807,7 +844,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -827,7 +864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -847,7 +884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -866,8 +903,11 @@
       <c r="F18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -886,8 +926,11 @@
       <c r="F19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -906,8 +949,11 @@
       <c r="F20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -926,8 +972,11 @@
       <c r="F21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -946,8 +995,11 @@
       <c r="F22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -966,8 +1018,11 @@
       <c r="F23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -986,8 +1041,11 @@
       <c r="F24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1006,8 +1064,11 @@
       <c r="F25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1026,8 +1087,11 @@
       <c r="F26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1046,8 +1110,11 @@
       <c r="F27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1066,8 +1133,11 @@
       <c r="F28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1086,8 +1156,11 @@
       <c r="F29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1106,8 +1179,11 @@
       <c r="F30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1126,8 +1202,11 @@
       <c r="F31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1146,8 +1225,11 @@
       <c r="F32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1166,8 +1248,11 @@
       <c r="F33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1186,8 +1271,11 @@
       <c r="F34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
@@ -1206,8 +1294,11 @@
       <c r="F35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -1226,8 +1317,11 @@
       <c r="F36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10</v>
       </c>
@@ -1246,8 +1340,11 @@
       <c r="F37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11</v>
       </c>
@@ -1266,8 +1363,11 @@
       <c r="F38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>12</v>
       </c>
@@ -1286,8 +1386,11 @@
       <c r="F39" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>13</v>
       </c>
@@ -1306,8 +1409,11 @@
       <c r="F40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>14</v>
       </c>
@@ -1326,8 +1432,11 @@
       <c r="F41" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1347,7 +1456,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1367,7 +1476,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1387,7 +1496,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -1407,7 +1516,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1427,7 +1536,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
@@ -1447,7 +1556,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>7</v>
       </c>
